--- a/excel2flapjack/tests/test_files/flapjack_excel_converter_v028.xlsx
+++ b/excel2flapjack/tests/test_files/flapjack_excel_converter_v028.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21820" windowHeight="14620" tabRatio="943" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21820" windowHeight="14620" tabRatio="943" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="9" r:id="rId1"/>
@@ -26,12 +26,11 @@
     <sheet name="NCI_Thesaurus" sheetId="29" r:id="rId17"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="1006">
   <si>
     <t>Role</t>
   </si>
@@ -3046,6 +3045,9 @@
   </si>
   <si>
     <t>http://www.examples.org/</t>
+  </si>
+  <si>
+    <t>Multicolumn</t>
   </si>
 </sst>
 </file>
@@ -3327,993 +3329,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="175">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF548135"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF548135"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF548135"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF548135"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF548135"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF548135"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="176">
     <dxf>
       <font>
         <b val="0"/>
@@ -4337,57 +3353,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5491,6 +4456,1067 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548135"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548135"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548135"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548135"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548135"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548135"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -5534,9 +5560,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Library-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="174"/>
-      <tableStyleElement type="firstRowStripe" dxfId="173"/>
-      <tableStyleElement type="secondRowStripe" dxfId="172"/>
+      <tableStyleElement type="headerRow" dxfId="175"/>
+      <tableStyleElement type="firstRowStripe" dxfId="174"/>
+      <tableStyleElement type="secondRowStripe" dxfId="173"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -5608,7 +5634,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:L23" totalsRowShown="0" headerRowDxfId="171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:L23" totalsRowShown="0" headerRowDxfId="172">
   <autoFilter ref="A10:L23"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Sheet Name"/>
@@ -5632,8 +5658,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_1789410" displayName="Table_1789410" ref="A1:C2">
   <tableColumns count="3">
     <tableColumn id="1" name="Media ID"/>
-    <tableColumn id="5" name="Media Name" dataDxfId="18"/>
-    <tableColumn id="2" name="Media Description" dataDxfId="17"/>
+    <tableColumn id="5" name="Media Name" dataDxfId="128"/>
+    <tableColumn id="2" name="Media Description" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5643,21 +5669,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_178941011" displayName="Table_178941011" ref="A1:C2">
   <tableColumns count="3">
     <tableColumn id="1" name="Strain ID"/>
-    <tableColumn id="5" name="Strain Name" dataDxfId="16"/>
-    <tableColumn id="2" name="Strain Description" dataDxfId="15"/>
+    <tableColumn id="5" name="Strain Name" dataDxfId="126"/>
+    <tableColumn id="2" name="Strain Description" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_17894101112" displayName="Table_17894101112" ref="A1:E3" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_17894101112" displayName="Table_17894101112" ref="A1:E3" dataDxfId="124">
   <tableColumns count="5">
-    <tableColumn id="1" name="Supplement ID" dataDxfId="13"/>
-    <tableColumn id="12" name="Sample ID" dataDxfId="12"/>
-    <tableColumn id="2" name="Chemical ID" dataDxfId="11"/>
-    <tableColumn id="6" name="Supplement Name" dataDxfId="10"/>
-    <tableColumn id="4" name="Concentration" dataDxfId="9"/>
+    <tableColumn id="1" name="Supplement ID" dataDxfId="123"/>
+    <tableColumn id="12" name="Sample ID" dataDxfId="122"/>
+    <tableColumn id="2" name="Chemical ID" dataDxfId="121"/>
+    <tableColumn id="6" name="Supplement Name" dataDxfId="120"/>
+    <tableColumn id="4" name="Concentration" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5667,9 +5693,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_178941011121314" displayName="Table_178941011121314" ref="A1:D3">
   <tableColumns count="4">
     <tableColumn id="1" name="Chemical ID"/>
-    <tableColumn id="5" name="Chemical Name" dataDxfId="8"/>
-    <tableColumn id="2" name="Chemical Description" dataDxfId="7"/>
-    <tableColumn id="4" name="Pubchem ID" dataDxfId="6"/>
+    <tableColumn id="5" name="Chemical Name" dataDxfId="118"/>
+    <tableColumn id="2" name="Chemical Description" dataDxfId="117"/>
+    <tableColumn id="4" name="Pubchem ID" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5678,9 +5704,9 @@
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table_1789410111213" displayName="Table_1789410111213" ref="A1:C3">
   <tableColumns count="3">
-    <tableColumn id="1" name="Vector ID" dataDxfId="5"/>
-    <tableColumn id="12" name="DNA ID" dataDxfId="4"/>
-    <tableColumn id="2" name="Vector Name" dataDxfId="3"/>
+    <tableColumn id="1" name="Vector ID" dataDxfId="115"/>
+    <tableColumn id="12" name="DNA ID" dataDxfId="114"/>
+    <tableColumn id="2" name="Vector Name" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5689,33 +5715,34 @@
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table_17894101112131415" displayName="Table_17894101112131415" ref="A1:B4">
   <tableColumns count="2">
-    <tableColumn id="1" name="DNA ID" dataDxfId="2"/>
-    <tableColumn id="2" name="DNA Name" dataDxfId="1"/>
+    <tableColumn id="1" name="DNA ID" dataDxfId="112"/>
+    <tableColumn id="2" name="DNA Name" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A1:P47" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <autoFilter ref="A1:P47"/>
-  <tableColumns count="16">
-    <tableColumn id="16" name="Sheet Name" dataDxfId="58"/>
-    <tableColumn id="1" name="Column Name" dataDxfId="57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A1:Q47" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170">
+  <autoFilter ref="A1:Q47"/>
+  <tableColumns count="17">
+    <tableColumn id="16" name="Sheet Name" dataDxfId="169"/>
+    <tableColumn id="1" name="Column Name" dataDxfId="168"/>
+    <tableColumn id="5" name="Multicolumn" dataDxfId="0"/>
     <tableColumn id="2" name="SBOL Term"/>
-    <tableColumn id="3" name="Namespace URL" dataDxfId="56"/>
-    <tableColumn id="17" name="Type" dataDxfId="55" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Namespace URL" dataDxfId="167"/>
+    <tableColumn id="17" name="Type" dataDxfId="166" dataCellStyle="Hyperlink"/>
     <tableColumn id="4" name="Split On"/>
     <tableColumn id="6" name="Pattern"/>
-    <tableColumn id="7" name="Tyto Lookup" dataDxfId="54"/>
-    <tableColumn id="8" name="Sheet Lookup" dataDxfId="53"/>
-    <tableColumn id="9" name="Replacement Lookup" dataDxfId="52"/>
-    <tableColumn id="10" name="Object_ID Lookup" dataDxfId="51"/>
-    <tableColumn id="11" name="Parent Lookup" dataDxfId="50"/>
-    <tableColumn id="12" name="Lookup Sheet Name" dataDxfId="49"/>
-    <tableColumn id="13" name="From Col" dataDxfId="48"/>
-    <tableColumn id="14" name="To Col" dataDxfId="47"/>
-    <tableColumn id="15" name="Ontology Name" dataDxfId="46"/>
+    <tableColumn id="7" name="Tyto Lookup" dataDxfId="165"/>
+    <tableColumn id="8" name="Sheet Lookup" dataDxfId="164"/>
+    <tableColumn id="9" name="Replacement Lookup" dataDxfId="163"/>
+    <tableColumn id="10" name="Object_ID Lookup" dataDxfId="162"/>
+    <tableColumn id="11" name="Parent Lookup" dataDxfId="161"/>
+    <tableColumn id="12" name="Lookup Sheet Name" dataDxfId="160"/>
+    <tableColumn id="13" name="From Col" dataDxfId="159"/>
+    <tableColumn id="14" name="To Col" dataDxfId="158"/>
+    <tableColumn id="15" name="Ontology Name" dataDxfId="157"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5726,7 +5753,7 @@
   <autoFilter ref="A1:C31"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Sheet Name"/>
-    <tableColumn id="2" name="ColName" dataDxfId="0"/>
+    <tableColumn id="2" name="ColName" dataDxfId="156"/>
     <tableColumn id="3" name="FlapjackName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5737,9 +5764,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table_1" displayName="Table_1" ref="A1:D2">
   <tableColumns count="4">
     <tableColumn id="1" name="Study ID"/>
-    <tableColumn id="16" name="Study Name" dataDxfId="45"/>
-    <tableColumn id="12" name="Description" dataDxfId="44"/>
-    <tableColumn id="2" name="DOI" dataDxfId="43"/>
+    <tableColumn id="16" name="Study Name" dataDxfId="155"/>
+    <tableColumn id="12" name="Description" dataDxfId="154"/>
+    <tableColumn id="2" name="DOI" dataDxfId="153"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5749,11 +5776,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table_17" displayName="Table_17" ref="A1:F3">
   <tableColumns count="6">
     <tableColumn id="1" name="Assay ID"/>
-    <tableColumn id="11" name="Assay Name" dataDxfId="42"/>
-    <tableColumn id="16" name="Machine" dataDxfId="41"/>
-    <tableColumn id="12" name="Description" dataDxfId="40"/>
-    <tableColumn id="2" name="Temperature" dataDxfId="39"/>
-    <tableColumn id="15" name="Study ID" dataDxfId="38"/>
+    <tableColumn id="11" name="Assay Name" dataDxfId="152"/>
+    <tableColumn id="16" name="Machine" dataDxfId="151"/>
+    <tableColumn id="12" name="Description" dataDxfId="150"/>
+    <tableColumn id="2" name="Temperature" dataDxfId="149"/>
+    <tableColumn id="15" name="Study ID" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5763,13 +5790,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table_178" displayName="Table_178" ref="A1:H5">
   <tableColumns count="8">
     <tableColumn id="1" name="Sample ID"/>
-    <tableColumn id="11" name="Row" dataDxfId="37"/>
-    <tableColumn id="16" name="Column" dataDxfId="36"/>
-    <tableColumn id="12" name="Assay ID" dataDxfId="35"/>
-    <tableColumn id="2" name="Sample Design ID" dataDxfId="34"/>
-    <tableColumn id="4" name="Media ID" dataDxfId="33"/>
-    <tableColumn id="5" name="Strain ID" dataDxfId="32"/>
-    <tableColumn id="6" name="Vector ID" dataDxfId="31"/>
+    <tableColumn id="11" name="Row" dataDxfId="147"/>
+    <tableColumn id="16" name="Column" dataDxfId="146"/>
+    <tableColumn id="12" name="Assay ID" dataDxfId="145"/>
+    <tableColumn id="2" name="Sample Design ID" dataDxfId="144"/>
+    <tableColumn id="4" name="Media ID" dataDxfId="143"/>
+    <tableColumn id="5" name="Strain ID" dataDxfId="142"/>
+    <tableColumn id="6" name="Vector ID" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5779,11 +5806,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table_17816" displayName="Table_17816" ref="A1:F3">
   <tableColumns count="6">
     <tableColumn id="1" name="Sample Design ID"/>
-    <tableColumn id="2" name="Media ID" dataDxfId="30"/>
-    <tableColumn id="4" name="Strain ID" dataDxfId="29"/>
-    <tableColumn id="5" name="Vector ID" dataDxfId="28"/>
-    <tableColumn id="15" name="Supplement ID" dataDxfId="27"/>
-    <tableColumn id="3" name="SBOL Object Type" dataDxfId="26"/>
+    <tableColumn id="2" name="Media ID" dataDxfId="140"/>
+    <tableColumn id="4" name="Strain ID" dataDxfId="139"/>
+    <tableColumn id="5" name="Vector ID" dataDxfId="138"/>
+    <tableColumn id="15" name="Supplement ID" dataDxfId="137"/>
+    <tableColumn id="3" name="SBOL Object Type" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5793,10 +5820,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table_1789" displayName="Table_1789" ref="A1:E801">
   <tableColumns count="5">
     <tableColumn id="1" name="Measurement ID"/>
-    <tableColumn id="12" name="Sample ID" dataDxfId="25"/>
-    <tableColumn id="5" name="Signal" dataDxfId="24"/>
-    <tableColumn id="2" name="Time" dataDxfId="23"/>
-    <tableColumn id="4" name="Value" dataDxfId="22"/>
+    <tableColumn id="12" name="Sample ID" dataDxfId="135"/>
+    <tableColumn id="5" name="Signal" dataDxfId="134"/>
+    <tableColumn id="2" name="Time" dataDxfId="133"/>
+    <tableColumn id="4" name="Value" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5806,9 +5833,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table_17894" displayName="Table_17894" ref="A1:D3">
   <tableColumns count="4">
     <tableColumn id="1" name="Signal ID"/>
-    <tableColumn id="5" name="Signal Name" dataDxfId="21"/>
-    <tableColumn id="2" name="Signal Description" dataDxfId="20"/>
-    <tableColumn id="4" name="Signal Color" dataDxfId="19"/>
+    <tableColumn id="5" name="Signal Name" dataDxfId="131"/>
+    <tableColumn id="2" name="Signal Description" dataDxfId="130"/>
+    <tableColumn id="4" name="Signal Color" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7280,13 +7307,13 @@
     <tabColor theme="8"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7310,7 +7337,7 @@
     <col min="17" max="32" width="8.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
@@ -7318,72 +7345,73 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="18" t="b">
+      <c r="H2" s="10"/>
+      <c r="I2" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="18" t="b">
@@ -7395,31 +7423,32 @@
       <c r="L2" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8" t="b">
-        <v>0</v>
-      </c>
+      <c r="H3" s="10"/>
       <c r="I3" s="8" t="b">
         <v>0</v>
       </c>
@@ -7432,34 +7461,35 @@
       <c r="L3" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8" t="b">
-        <v>0</v>
-      </c>
+      <c r="H4" s="10"/>
       <c r="I4" s="8" t="b">
         <v>0</v>
       </c>
@@ -7472,34 +7502,35 @@
       <c r="L4" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8" t="b">
-        <v>0</v>
-      </c>
+      <c r="H5" s="10"/>
       <c r="I5" s="8" t="b">
         <v>0</v>
       </c>
@@ -7512,34 +7543,35 @@
       <c r="L5" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="18" t="b">
         <v>0</v>
       </c>
@@ -7552,32 +7584,33 @@
       <c r="L6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18" t="b">
+      <c r="H7" s="11"/>
+      <c r="I7" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J7" s="18" t="b">
@@ -7589,35 +7622,36 @@
       <c r="L7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8" t="b">
-        <v>0</v>
-      </c>
+      <c r="H8" s="10"/>
       <c r="I8" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="18" t="b">
+      <c r="J8" s="8" t="b">
         <v>0</v>
       </c>
       <c r="K8" s="18" t="b">
@@ -7626,32 +7660,33 @@
       <c r="L8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="18" t="b">
+      <c r="H9" s="10"/>
+      <c r="I9" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J9" s="18" t="b">
@@ -7663,32 +7698,33 @@
       <c r="L9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18" t="b">
+      <c r="H10" s="10"/>
+      <c r="I10" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J10" s="18" t="b">
@@ -7700,32 +7736,33 @@
       <c r="L10" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="18" t="b">
+      <c r="H11" s="10"/>
+      <c r="I11" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J11" s="18" t="b">
@@ -7737,69 +7774,71 @@
       <c r="L11" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18" t="b">
+      <c r="H12" s="10"/>
+      <c r="I12" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J12" s="18" t="b">
         <v>0</v>
       </c>
       <c r="K12" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="18" t="b">
+      <c r="H13" s="10"/>
+      <c r="I13" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J13" s="18" t="b">
@@ -7811,32 +7850,33 @@
       <c r="L13" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18" t="b">
+      <c r="H14" s="10"/>
+      <c r="I14" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="18" t="b">
@@ -7848,68 +7888,70 @@
       <c r="L14" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>122</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="F15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="18" t="b">
+      <c r="H15" s="10"/>
+      <c r="I15" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="18" t="b">
         <v>0</v>
       </c>
       <c r="K15" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="L15" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>118</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="18" t="b">
+      <c r="H16" s="10"/>
+      <c r="I16" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="18" t="b">
@@ -7921,175 +7963,180 @@
       <c r="L16" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>118</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="18" t="b">
+      <c r="H17" s="10"/>
+      <c r="I17" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="18" t="b">
         <v>0</v>
       </c>
       <c r="K17" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="L17" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>118</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="18" t="b">
+      <c r="H18" s="10"/>
+      <c r="I18" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="18" t="b">
         <v>0</v>
       </c>
       <c r="K18" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="L18" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>118</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="18" t="b">
+      <c r="H19" s="11"/>
+      <c r="I19" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J19" s="18" t="b">
         <v>0</v>
       </c>
       <c r="K19" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="L19" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>118</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="18" t="b">
+      <c r="H20" s="10"/>
+      <c r="I20" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J20" s="18" t="b">
         <v>0</v>
       </c>
       <c r="K20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="L20" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="18" t="b">
+      <c r="H21" s="10"/>
+      <c r="I21" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J21" s="18" t="b">
@@ -8101,35 +8148,36 @@
       <c r="L21" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="18" t="b">
+        <v>0</v>
+      </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="18" t="b">
+      <c r="H22" s="10"/>
+      <c r="I22" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="18" t="b">
@@ -8141,35 +8189,36 @@
       <c r="L22" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M22" s="8"/>
+      <c r="M22" s="18" t="b">
+        <v>0</v>
+      </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="F23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="18" t="b">
+      <c r="H23" s="10"/>
+      <c r="I23" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J23" s="18" t="b">
@@ -8181,31 +8230,32 @@
       <c r="L23" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="F24" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="18" t="b">
+      <c r="H24" s="10"/>
+      <c r="I24" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="18" t="b">
@@ -8217,31 +8267,32 @@
       <c r="L24" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M24" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="18" t="b">
+      <c r="H25" s="10"/>
+      <c r="I25" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="18" t="b">
@@ -8253,31 +8304,32 @@
       <c r="L25" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M25" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="18" t="b">
+      <c r="H26" s="10"/>
+      <c r="I26" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J26" s="18" t="b">
@@ -8289,31 +8341,32 @@
       <c r="L26" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="F27" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="18" t="b">
+      <c r="H27" s="10"/>
+      <c r="I27" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="18" t="b">
@@ -8325,31 +8378,32 @@
       <c r="L27" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="18" t="b">
+      <c r="H28" s="10"/>
+      <c r="I28" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="18" t="b">
@@ -8361,31 +8415,32 @@
       <c r="L28" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M28" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="18" t="b">
+      <c r="H29" s="10"/>
+      <c r="I29" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="18" t="b">
@@ -8397,31 +8452,32 @@
       <c r="L29" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M29" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="F30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="18" t="b">
+      <c r="H30" s="10"/>
+      <c r="I30" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J30" s="18" t="b">
@@ -8433,31 +8489,32 @@
       <c r="L30" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M30" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="18" t="b">
+      <c r="H31" s="10"/>
+      <c r="I31" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J31" s="18" t="b">
@@ -8469,31 +8526,32 @@
       <c r="L31" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M31" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="F32" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="18" t="b">
+      <c r="H32" s="10"/>
+      <c r="I32" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J32" s="18" t="b">
@@ -8505,71 +8563,73 @@
       <c r="L32" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M32" s="8"/>
+      <c r="M32" s="18" t="b">
+        <v>0</v>
+      </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P32" s="8"/>
+      <c r="Q32" s="9"/>
+    </row>
+    <row r="33" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="F33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="18" t="b">
+      <c r="H33" s="10"/>
+      <c r="I33" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J33" s="18" t="b">
         <v>0</v>
       </c>
       <c r="K33" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="L33" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M33" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="F34" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="G34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="18" t="b">
+      <c r="H34" s="10"/>
+      <c r="I34" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J34" s="18" t="b">
@@ -8581,31 +8641,32 @@
       <c r="L34" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M34" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="20"/>
+      <c r="D35" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="F35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="18" t="b">
+      <c r="H35" s="10"/>
+      <c r="I35" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J35" s="18" t="b">
@@ -8617,30 +8678,31 @@
       <c r="L35" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M35" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="22"/>
+      <c r="D36" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="F36" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="H36" s="10"/>
       <c r="I36" s="18" t="b">
         <v>0</v>
       </c>
@@ -8653,30 +8715,31 @@
       <c r="L36" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M36" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="F37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="H37" s="10"/>
       <c r="I37" s="18" t="b">
         <v>0</v>
       </c>
@@ -8689,30 +8752,31 @@
       <c r="L37" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M37" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="F38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="H38" s="10"/>
       <c r="I38" s="18" t="b">
         <v>0</v>
       </c>
@@ -8725,30 +8789,31 @@
       <c r="L38" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M38" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="22"/>
+      <c r="D39" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="F39" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="G39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="H39" s="10"/>
       <c r="I39" s="18" t="b">
         <v>0</v>
       </c>
@@ -8761,30 +8826,31 @@
       <c r="L39" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M39" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="F40" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="G40" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H40" s="10"/>
       <c r="I40" s="3" t="b">
         <v>0</v>
       </c>
@@ -8797,66 +8863,68 @@
       <c r="L40" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M40" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="14"/>
+      <c r="D41" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="F41" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="G41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H41" s="10"/>
       <c r="I41" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J41" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K41" s="18" t="b">
+      <c r="K41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="L41" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M41" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="17"/>
+      <c r="D42" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="F42" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H42" s="10"/>
       <c r="I42" s="3" t="b">
         <v>0</v>
       </c>
@@ -8869,30 +8937,31 @@
       <c r="L42" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M42" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="F43" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="G43" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H43" s="10"/>
       <c r="I43" s="3" t="b">
         <v>0</v>
       </c>
@@ -8905,30 +8974,31 @@
       <c r="L43" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M43" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="17"/>
+      <c r="D44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="F44" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H44" s="10"/>
       <c r="I44" s="3" t="b">
         <v>0</v>
       </c>
@@ -8941,30 +9011,31 @@
       <c r="L44" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M44" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1000</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="17"/>
+      <c r="D45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="F45" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="G45" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H45" s="10"/>
       <c r="I45" s="3" t="b">
         <v>0</v>
       </c>
@@ -8977,79 +9048,81 @@
       <c r="L45" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M45" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1000</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="21"/>
+      <c r="D46" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="H46" s="10"/>
       <c r="I46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J46" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="K46" s="18" t="b">
         <v>0</v>
       </c>
       <c r="L46" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M46" s="18" t="s">
+      <c r="M46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N46" s="18" t="s">
+      <c r="O46" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="O46" s="18" t="s">
+      <c r="P46" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="P46" s="8"/>
-    </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q46" s="8"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1000</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="F47" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="G47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="18" t="b">
+      <c r="H47" s="11"/>
+      <c r="I47" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="I47" s="18" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" s="18" t="b">
         <v>0</v>
       </c>
@@ -9059,501 +9132,504 @@
       <c r="L47" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M47" s="18"/>
+      <c r="M47" s="18" t="b">
+        <v>0</v>
+      </c>
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
-      <c r="P47" s="8" t="s">
+      <c r="P47" s="18"/>
+      <c r="Q47" s="8" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H41:J41 L41 H2:L5">
-    <cfRule type="cellIs" dxfId="170" priority="237" operator="equal">
+  <conditionalFormatting sqref="I41:K41 M41 I2:M5">
+    <cfRule type="cellIs" dxfId="110" priority="237" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="238" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40:L40">
-    <cfRule type="cellIs" dxfId="168" priority="235" operator="equal">
+  <conditionalFormatting sqref="I40:M40">
+    <cfRule type="cellIs" dxfId="108" priority="235" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="236" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42:L42">
-    <cfRule type="cellIs" dxfId="166" priority="231" operator="equal">
+  <conditionalFormatting sqref="I42:M42">
+    <cfRule type="cellIs" dxfId="106" priority="231" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="232" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:L43">
-    <cfRule type="cellIs" dxfId="164" priority="215" operator="equal">
+  <conditionalFormatting sqref="I43:M43">
+    <cfRule type="cellIs" dxfId="104" priority="215" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="216" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44:L44">
-    <cfRule type="cellIs" dxfId="162" priority="211" operator="equal">
+  <conditionalFormatting sqref="I44:M44">
+    <cfRule type="cellIs" dxfId="102" priority="211" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="212" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:L36">
-    <cfRule type="cellIs" dxfId="160" priority="153" operator="equal">
+  <conditionalFormatting sqref="I36:M36">
+    <cfRule type="cellIs" dxfId="100" priority="153" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="154" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:L37">
-    <cfRule type="cellIs" dxfId="158" priority="149" operator="equal">
+  <conditionalFormatting sqref="I37:M37">
+    <cfRule type="cellIs" dxfId="98" priority="149" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="150" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:L39">
-    <cfRule type="cellIs" dxfId="156" priority="147" operator="equal">
+  <conditionalFormatting sqref="I38:M39">
+    <cfRule type="cellIs" dxfId="96" priority="147" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="148" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" dxfId="154" priority="139" operator="equal">
+  <conditionalFormatting sqref="L41">
+    <cfRule type="cellIs" dxfId="94" priority="139" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="140" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
-    <cfRule type="cellIs" dxfId="152" priority="127" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="140" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I32">
-    <cfRule type="cellIs" dxfId="150" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="127" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="128" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:J32">
-    <cfRule type="cellIs" dxfId="148" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="125" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="126" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:L32">
-    <cfRule type="cellIs" dxfId="146" priority="121" operator="equal">
+  <conditionalFormatting sqref="K31:K32">
+    <cfRule type="cellIs" dxfId="88" priority="123" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="124" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33:J33">
-    <cfRule type="cellIs" dxfId="144" priority="117" operator="equal">
+  <conditionalFormatting sqref="L31:M32">
+    <cfRule type="cellIs" dxfId="86" priority="121" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="122" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="cellIs" dxfId="142" priority="115" operator="equal">
+  <conditionalFormatting sqref="I33:K33">
+    <cfRule type="cellIs" dxfId="84" priority="117" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="118" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="cellIs" dxfId="140" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="115" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="116" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:L34">
-    <cfRule type="cellIs" dxfId="138" priority="111" operator="equal">
+  <conditionalFormatting sqref="M33">
+    <cfRule type="cellIs" dxfId="80" priority="113" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="114" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:L35">
-    <cfRule type="cellIs" dxfId="136" priority="109" operator="equal">
+  <conditionalFormatting sqref="I34:M34">
+    <cfRule type="cellIs" dxfId="78" priority="111" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="112" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28:L28">
-    <cfRule type="cellIs" dxfId="134" priority="105" operator="equal">
+  <conditionalFormatting sqref="I35:M35">
+    <cfRule type="cellIs" dxfId="76" priority="109" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="110" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:L29">
-    <cfRule type="cellIs" dxfId="132" priority="101" operator="equal">
+  <conditionalFormatting sqref="I28:M28">
+    <cfRule type="cellIs" dxfId="74" priority="105" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="106" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:L30">
-    <cfRule type="cellIs" dxfId="130" priority="99" operator="equal">
+  <conditionalFormatting sqref="I29:M29">
+    <cfRule type="cellIs" dxfId="72" priority="101" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="102" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25:L25">
-    <cfRule type="cellIs" dxfId="128" priority="91" operator="equal">
+  <conditionalFormatting sqref="I30:M30">
+    <cfRule type="cellIs" dxfId="70" priority="99" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="100" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26:L26">
-    <cfRule type="cellIs" dxfId="126" priority="87" operator="equal">
+  <conditionalFormatting sqref="I25:M25">
+    <cfRule type="cellIs" dxfId="68" priority="91" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="92" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:L27">
-    <cfRule type="cellIs" dxfId="124" priority="85" operator="equal">
+  <conditionalFormatting sqref="I26:M26">
+    <cfRule type="cellIs" dxfId="66" priority="87" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="88" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:L21">
-    <cfRule type="cellIs" dxfId="122" priority="81" operator="equal">
+  <conditionalFormatting sqref="I27:M27">
+    <cfRule type="cellIs" dxfId="64" priority="85" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="86" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:L22">
-    <cfRule type="cellIs" dxfId="120" priority="77" operator="equal">
+  <conditionalFormatting sqref="I21:M21">
+    <cfRule type="cellIs" dxfId="62" priority="81" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="82" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:L23">
-    <cfRule type="cellIs" dxfId="118" priority="75" operator="equal">
+  <conditionalFormatting sqref="I22:M22">
+    <cfRule type="cellIs" dxfId="60" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:L24">
-    <cfRule type="cellIs" dxfId="116" priority="73" operator="equal">
+  <conditionalFormatting sqref="I23:M23">
+    <cfRule type="cellIs" dxfId="58" priority="75" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="76" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:L16">
-    <cfRule type="cellIs" dxfId="114" priority="63" operator="equal">
+  <conditionalFormatting sqref="I24:M24">
+    <cfRule type="cellIs" dxfId="56" priority="73" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="74" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:J17 L17">
-    <cfRule type="cellIs" dxfId="112" priority="61" operator="equal">
+  <conditionalFormatting sqref="I16:M16">
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="110" priority="59" operator="equal">
+  <conditionalFormatting sqref="I17:K17 M17">
+    <cfRule type="cellIs" dxfId="52" priority="61" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="62" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:J18 L18">
-    <cfRule type="cellIs" dxfId="108" priority="57" operator="equal">
+  <conditionalFormatting sqref="L17">
+    <cfRule type="cellIs" dxfId="50" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="106" priority="55" operator="equal">
+  <conditionalFormatting sqref="I18:K18 M18">
+    <cfRule type="cellIs" dxfId="48" priority="57" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="58" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:J19 L19">
-    <cfRule type="cellIs" dxfId="104" priority="53" operator="equal">
+  <conditionalFormatting sqref="L18">
+    <cfRule type="cellIs" dxfId="46" priority="55" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="56" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="102" priority="51" operator="equal">
+  <conditionalFormatting sqref="I19:K19 M19">
+    <cfRule type="cellIs" dxfId="44" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:J20 L20">
-    <cfRule type="cellIs" dxfId="100" priority="49" operator="equal">
+  <conditionalFormatting sqref="L19">
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="52" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="98" priority="47" operator="equal">
+  <conditionalFormatting sqref="I20:K20 M20">
+    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:L10">
-    <cfRule type="cellIs" dxfId="96" priority="45" operator="equal">
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:L11">
-    <cfRule type="cellIs" dxfId="94" priority="39" operator="equal">
+  <conditionalFormatting sqref="I6:M10">
+    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="46" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:L12">
-    <cfRule type="cellIs" dxfId="92" priority="37" operator="equal">
+  <conditionalFormatting sqref="I11:M11">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="40" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="90" priority="35" operator="equal">
+  <conditionalFormatting sqref="L12:M12">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="88" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="86" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="34" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:L13">
-    <cfRule type="cellIs" dxfId="84" priority="29" operator="equal">
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:L14">
-    <cfRule type="cellIs" dxfId="82" priority="27" operator="equal">
+  <conditionalFormatting sqref="I13:M13">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:M14">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="80" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="78" priority="23" operator="equal">
+  <conditionalFormatting sqref="M15">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="76" priority="21" operator="equal">
+  <conditionalFormatting sqref="I45:M45">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="74" priority="19" operator="equal">
+  <conditionalFormatting sqref="I46 K46:M46">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="72" priority="17" operator="equal">
+  <conditionalFormatting sqref="J47:M47">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45:L45">
-    <cfRule type="cellIs" dxfId="70" priority="9" operator="equal">
+  <conditionalFormatting sqref="J46">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46 J46:L46">
-    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
+  <conditionalFormatting sqref="I47">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="8" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:L47">
-    <cfRule type="cellIs" dxfId="66" priority="5" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="6" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D43" r:id="rId1"/>
-    <hyperlink ref="D44" r:id="rId2"/>
-    <hyperlink ref="D40" r:id="rId3"/>
-    <hyperlink ref="D42" r:id="rId4"/>
-    <hyperlink ref="D36" r:id="rId5"/>
-    <hyperlink ref="D37" r:id="rId6"/>
-    <hyperlink ref="D38" r:id="rId7"/>
-    <hyperlink ref="D39" r:id="rId8"/>
-    <hyperlink ref="D31" r:id="rId9"/>
-    <hyperlink ref="D33" r:id="rId10"/>
-    <hyperlink ref="D34" r:id="rId11"/>
-    <hyperlink ref="D35" r:id="rId12"/>
-    <hyperlink ref="D32" r:id="rId13"/>
-    <hyperlink ref="D28" r:id="rId14"/>
-    <hyperlink ref="D30" r:id="rId15"/>
-    <hyperlink ref="D25" r:id="rId16"/>
-    <hyperlink ref="D26" r:id="rId17"/>
-    <hyperlink ref="D27" r:id="rId18"/>
-    <hyperlink ref="D21" r:id="rId19"/>
-    <hyperlink ref="D23" r:id="rId20"/>
-    <hyperlink ref="D24" r:id="rId21"/>
-    <hyperlink ref="D29" r:id="rId22"/>
-    <hyperlink ref="D22" r:id="rId23"/>
-    <hyperlink ref="D16" r:id="rId24"/>
-    <hyperlink ref="D17" r:id="rId25"/>
-    <hyperlink ref="D18" r:id="rId26"/>
-    <hyperlink ref="D19" r:id="rId27"/>
-    <hyperlink ref="D20" r:id="rId28"/>
-    <hyperlink ref="D6" r:id="rId29"/>
-    <hyperlink ref="D7" r:id="rId30"/>
-    <hyperlink ref="D8" r:id="rId31"/>
-    <hyperlink ref="D9" r:id="rId32"/>
-    <hyperlink ref="D10" r:id="rId33"/>
-    <hyperlink ref="D11" r:id="rId34"/>
-    <hyperlink ref="D12" r:id="rId35"/>
-    <hyperlink ref="D13" r:id="rId36"/>
-    <hyperlink ref="D14" r:id="rId37"/>
-    <hyperlink ref="D15" r:id="rId38"/>
-    <hyperlink ref="D2" r:id="rId39"/>
-    <hyperlink ref="D3" r:id="rId40"/>
-    <hyperlink ref="D4" r:id="rId41"/>
-    <hyperlink ref="D5" r:id="rId42"/>
-    <hyperlink ref="D41" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="E43" r:id="rId1"/>
+    <hyperlink ref="E44" r:id="rId2"/>
+    <hyperlink ref="E40" r:id="rId3"/>
+    <hyperlink ref="E42" r:id="rId4"/>
+    <hyperlink ref="E36" r:id="rId5"/>
+    <hyperlink ref="E37" r:id="rId6"/>
+    <hyperlink ref="E38" r:id="rId7"/>
+    <hyperlink ref="E39" r:id="rId8"/>
+    <hyperlink ref="E31" r:id="rId9"/>
+    <hyperlink ref="E33" r:id="rId10"/>
+    <hyperlink ref="E34" r:id="rId11"/>
+    <hyperlink ref="E35" r:id="rId12"/>
+    <hyperlink ref="E32" r:id="rId13"/>
+    <hyperlink ref="E28" r:id="rId14"/>
+    <hyperlink ref="E30" r:id="rId15"/>
+    <hyperlink ref="E25" r:id="rId16"/>
+    <hyperlink ref="E26" r:id="rId17"/>
+    <hyperlink ref="E27" r:id="rId18"/>
+    <hyperlink ref="E21" r:id="rId19"/>
+    <hyperlink ref="E23" r:id="rId20"/>
+    <hyperlink ref="E24" r:id="rId21"/>
+    <hyperlink ref="E29" r:id="rId22"/>
+    <hyperlink ref="E22" r:id="rId23"/>
+    <hyperlink ref="E16" r:id="rId24"/>
+    <hyperlink ref="E17" r:id="rId25"/>
+    <hyperlink ref="E18" r:id="rId26"/>
+    <hyperlink ref="E19" r:id="rId27"/>
+    <hyperlink ref="E20" r:id="rId28"/>
+    <hyperlink ref="E6" r:id="rId29"/>
+    <hyperlink ref="E7" r:id="rId30"/>
+    <hyperlink ref="E8" r:id="rId31"/>
+    <hyperlink ref="E9" r:id="rId32"/>
+    <hyperlink ref="E10" r:id="rId33"/>
+    <hyperlink ref="E11" r:id="rId34"/>
+    <hyperlink ref="E12" r:id="rId35"/>
+    <hyperlink ref="E13" r:id="rId36"/>
+    <hyperlink ref="E14" r:id="rId37"/>
+    <hyperlink ref="E15" r:id="rId38"/>
+    <hyperlink ref="E2" r:id="rId39"/>
+    <hyperlink ref="E3" r:id="rId40"/>
+    <hyperlink ref="E4" r:id="rId41"/>
+    <hyperlink ref="E5" r:id="rId42"/>
+    <hyperlink ref="E41" r:id="rId43"/>
+    <hyperlink ref="E45" r:id="rId44"/>
+    <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="45" orientation="landscape" r:id="rId47"/>
@@ -9570,7 +9646,7 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/excel2flapjack/tests/test_files/flapjack_excel_converter_v028.xlsx
+++ b/excel2flapjack/tests/test_files/flapjack_excel_converter_v028.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saisa\FlapjackUploadMeasurements\excel2flapjack\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57094CA-9727-405B-B1C0-D30884A1A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7744D3-6292-4639-8368-EA437A6EE294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="943" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="943" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3021" uniqueCount="1014">
   <si>
     <t>Role</t>
   </si>
@@ -3026,9 +3026,6 @@
     <t>row</t>
   </si>
   <si>
-    <t>column</t>
-  </si>
-  <si>
     <t>machine</t>
   </si>
   <si>
@@ -3054,13 +3051,40 @@
   </si>
   <si>
     <t>Multicolumn</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample </t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>assay</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3192,6 +3216,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3282,7 +3312,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3322,6 +3352,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -3329,1091 +3360,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="176">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF548135"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF548135"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF548135"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF548135"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF548135"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF548135"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5516,6 +4462,1091 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548135"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548135"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548135"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548135"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548135"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF548135"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -5666,8 +5697,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table_1789410" displayName="Table_1789410" ref="A1:C2">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Media ID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Media Name" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Media Description" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Media Name" dataDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Media Description" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5677,21 +5708,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table_178941011" displayName="Table_178941011" ref="A1:C2">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Strain ID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Strain Name" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Strain Description" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Strain Name" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Strain Description" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table_17894101112" displayName="Table_17894101112" ref="A1:E3" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table_17894101112" displayName="Table_17894101112" ref="A1:E3" dataDxfId="123">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Supplement ID" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="Sample ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Chemical ID" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Supplement Name" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Concentration" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Supplement ID" dataDxfId="122"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="Sample ID" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Chemical ID" dataDxfId="120"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Supplement Name" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Concentration" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5701,9 +5732,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table_178941011121314" displayName="Table_178941011121314" ref="A1:D3">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Chemical ID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Chemical Name" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Chemical Description" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Pubchem ID" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Chemical Name" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Chemical Description" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Pubchem ID" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5712,9 +5743,9 @@
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table_1789410111213" displayName="Table_1789410111213" ref="A1:C3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Vector ID" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0D00-00000C000000}" name="DNA ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Vector Name" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Vector ID" dataDxfId="114"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0D00-00000C000000}" name="DNA ID" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Vector Name" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5723,45 +5754,45 @@
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table_17894101112131415" displayName="Table_17894101112131415" ref="A1:B4">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="DNA ID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="DNA Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="DNA ID" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="DNA Name" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table46" displayName="Table46" ref="A1:Q47" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table46" displayName="Table46" ref="A1:Q47" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170">
   <autoFilter ref="A1:Q47" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="17">
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Sheet Name" dataDxfId="59"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column Name" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Multicolumn" dataDxfId="57"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Sheet Name" dataDxfId="169"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column Name" dataDxfId="168"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Multicolumn" dataDxfId="167"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SBOL Term"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Namespace URL" dataDxfId="56"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Type" dataDxfId="55" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Namespace URL" dataDxfId="166"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Type" dataDxfId="165" dataCellStyle="Hyperlink"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Split On"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Pattern"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Tyto Lookup" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Sheet Lookup" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Replacement Lookup" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Object_ID Lookup" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Parent Lookup" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Lookup Sheet Name" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="From Col" dataDxfId="48"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="To Col" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Ontology Name" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Tyto Lookup" dataDxfId="164"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Sheet Lookup" dataDxfId="163"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Replacement Lookup" dataDxfId="162"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Object_ID Lookup" dataDxfId="161"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Parent Lookup" dataDxfId="160"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Lookup Sheet Name" dataDxfId="159"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="From Col" dataDxfId="158"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="To Col" dataDxfId="157"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Ontology Name" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table16" displayName="Table16" ref="A1:C31" totalsRowShown="0">
-  <autoFilter ref="A1:C31" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table16" displayName="Table16" ref="A1:C38" totalsRowShown="0">
+  <autoFilter ref="A1:C38" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sheet Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ColName" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ColName" dataDxfId="155"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="FlapjackName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5772,9 +5803,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_1" displayName="Table_1" ref="A1:D2">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Study ID"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Study Name" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Description" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DOI" dataDxfId="42"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Study Name" dataDxfId="154"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Description" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DOI" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5784,11 +5815,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_17" displayName="Table_17" ref="A1:F3">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Assay ID"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Assay Name" dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Machine" dataDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Description" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Temperature" dataDxfId="38"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Study ID" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Assay Name" dataDxfId="151"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Machine" dataDxfId="150"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Description" dataDxfId="149"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Temperature" dataDxfId="148"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Study ID" dataDxfId="147"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5798,13 +5829,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_178" displayName="Table_178" ref="A1:H5">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Sample ID"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Row" dataDxfId="36"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Column" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Assay ID" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Sample Design ID" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Media ID" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Strain ID" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Vector ID" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Row" dataDxfId="146"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Column" dataDxfId="145"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Assay ID" dataDxfId="144"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Sample Design ID" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Media ID" dataDxfId="142"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Strain ID" dataDxfId="141"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Vector ID" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5814,11 +5845,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_17816" displayName="Table_17816" ref="A1:F3">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Sample Design ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Media ID" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Strain ID" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Vector ID" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="Supplement ID" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="SBOL Object Type" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Media ID" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Strain ID" dataDxfId="138"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Vector ID" dataDxfId="137"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="Supplement ID" dataDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="SBOL Object Type" dataDxfId="135"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5828,10 +5859,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_1789" displayName="Table_1789" ref="A1:E801">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Measurement ID"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Sample ID" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Signal" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Time" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Value" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Sample ID" dataDxfId="134"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Signal ID" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Time" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Value" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5841,9 +5872,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table_17894" displayName="Table_17894" ref="A1:D3">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Signal ID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Signal Name" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Signal Description" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Signal Color" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Signal Name" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Signal Description" dataDxfId="129"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Signal Color" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6071,7 +6102,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B1" s="23">
         <v>2</v>
@@ -6083,7 +6114,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6096,10 +6127,10 @@
     </row>
     <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>1003</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6956,10 +6987,10 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6991,7 +7022,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -8663,7 +8694,7 @@
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>19</v>
@@ -8700,7 +8731,7 @@
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>45</v>
@@ -8747,7 +8778,7 @@
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>0</v>
@@ -8787,442 +8818,442 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I41:K41 M41 I2:M5">
-    <cfRule type="cellIs" dxfId="171" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="237" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="238" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:M40">
-    <cfRule type="cellIs" dxfId="169" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="235" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="236" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:M42">
-    <cfRule type="cellIs" dxfId="167" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="231" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="232" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:M43">
-    <cfRule type="cellIs" dxfId="165" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="215" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="216" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:M44">
-    <cfRule type="cellIs" dxfId="163" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="211" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="212" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:M36">
-    <cfRule type="cellIs" dxfId="161" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="153" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="154" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:M37">
-    <cfRule type="cellIs" dxfId="159" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="149" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="150" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:M39">
-    <cfRule type="cellIs" dxfId="157" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="147" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="148" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41">
-    <cfRule type="cellIs" dxfId="155" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="139" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="140" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I32">
-    <cfRule type="cellIs" dxfId="153" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="127" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="128" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:J32">
-    <cfRule type="cellIs" dxfId="151" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="125" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="126" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:K32">
-    <cfRule type="cellIs" dxfId="149" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="123" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="124" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:M32">
-    <cfRule type="cellIs" dxfId="147" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="121" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="122" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:K33">
-    <cfRule type="cellIs" dxfId="145" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="117" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="118" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="cellIs" dxfId="143" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="115" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="116" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="cellIs" dxfId="141" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="113" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="114" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:M34">
-    <cfRule type="cellIs" dxfId="139" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="111" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="112" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:M35">
-    <cfRule type="cellIs" dxfId="137" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="109" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="110" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:M28">
-    <cfRule type="cellIs" dxfId="135" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="105" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="106" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:M29">
-    <cfRule type="cellIs" dxfId="133" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="101" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="102" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:M30">
-    <cfRule type="cellIs" dxfId="131" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="99" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="100" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:M25">
-    <cfRule type="cellIs" dxfId="129" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="91" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="92" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:M26">
-    <cfRule type="cellIs" dxfId="127" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="87" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="88" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:M27">
-    <cfRule type="cellIs" dxfId="125" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="85" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:M21">
-    <cfRule type="cellIs" dxfId="123" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="81" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="82" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:M22">
-    <cfRule type="cellIs" dxfId="121" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:M23">
-    <cfRule type="cellIs" dxfId="119" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="75" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="76" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:M24">
-    <cfRule type="cellIs" dxfId="117" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="73" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="74" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:M16">
-    <cfRule type="cellIs" dxfId="115" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="63" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:K17 M17">
-    <cfRule type="cellIs" dxfId="113" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="111" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:K18 M18">
-    <cfRule type="cellIs" dxfId="109" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" dxfId="107" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="55" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:K19 M19">
-    <cfRule type="cellIs" dxfId="105" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" dxfId="103" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:K20 M20">
-    <cfRule type="cellIs" dxfId="101" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="49" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="99" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:M10">
-    <cfRule type="cellIs" dxfId="97" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:M11">
-    <cfRule type="cellIs" dxfId="95" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M12">
-    <cfRule type="cellIs" dxfId="93" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="91" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="89" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="87" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:M13">
-    <cfRule type="cellIs" dxfId="85" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:M14">
-    <cfRule type="cellIs" dxfId="83" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="81" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="79" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="77" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="75" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="73" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:M45">
-    <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46 K46:M46">
-    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:M47">
-    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9287,10 +9318,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A14" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9519,10 +9550,10 @@
       <c r="A19" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>992</v>
       </c>
       <c r="G19" s="8"/>
@@ -9546,11 +9577,11 @@
       <c r="A21" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>994</v>
+      <c r="B21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>1013</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -9559,13 +9590,13 @@
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -9577,10 +9608,10 @@
         <v>122</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -9589,13 +9620,13 @@
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>984</v>
+        <v>1012</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -9604,13 +9635,13 @@
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>131</v>
+        <v>122</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>997</v>
+        <v>1006</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -9619,13 +9650,13 @@
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>987</v>
+        <v>1007</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>1008</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -9634,13 +9665,13 @@
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>998</v>
+        <v>122</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>1009</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -9649,13 +9680,13 @@
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>984</v>
+        <v>122</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>1010</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -9664,13 +9695,13 @@
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>987</v>
+        <v>122</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>1011</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -9679,13 +9710,13 @@
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>145</v>
+        <v>984</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -9694,40 +9725,145 @@
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="27"/>
+        <v>129</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>131</v>
+      </c>
       <c r="C31" s="8" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>987</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>1005</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>997</v>
+      </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>984</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9800,7 +9936,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9877,8 +10013,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9888,7 +10025,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10130,8 +10267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E801"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10150,7 +10287,7 @@
         <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>115</v>
